--- a/results/mp/logistic/corona/confidence/126/topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,18 +46,21 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
@@ -67,87 +70,105 @@
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
@@ -157,22 +178,28 @@
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>and</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>to</t>
@@ -533,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,16 +650,16 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -644,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -652,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.726027397260274</v>
+        <v>0.7157534246575342</v>
       </c>
       <c r="C4">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D4">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -694,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -702,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6470588235294118</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -720,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4705882352941176</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -770,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>105</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -794,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -802,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4338624338624338</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C7">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -820,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.8381201044386423</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>321</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>321</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -844,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -852,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3410852713178295</v>
+        <v>0.3604651162790697</v>
       </c>
       <c r="C8">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D8">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -870,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.8205128205128205</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -894,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -902,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2147651006711409</v>
+        <v>0.28</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -920,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.8103448275862069</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>312</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>312</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -944,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -952,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1444444444444444</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C10">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -970,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>308</v>
+        <v>118</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K10">
-        <v>0.8046875</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L10">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -994,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1002,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07936507936507936</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1020,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>232</v>
+        <v>308</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.8018867924528302</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,505 +1079,625 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.004859086491739553</v>
+        <v>0.1031746031746032</v>
       </c>
       <c r="C12">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>226</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12">
+        <v>0.78125</v>
+      </c>
+      <c r="L12">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>100</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.05093833780160858</v>
+      </c>
+      <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>354</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13">
+        <v>0.7746478873239436</v>
+      </c>
+      <c r="L13">
+        <v>110</v>
+      </c>
+      <c r="M13">
+        <v>110</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.008006742520016857</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
         <v>25</v>
       </c>
-      <c r="D12">
+      <c r="E14">
+        <v>0.24</v>
+      </c>
+      <c r="F14">
+        <v>0.76</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>2354</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14">
+        <v>0.76875</v>
+      </c>
+      <c r="L14">
+        <v>123</v>
+      </c>
+      <c r="M14">
+        <v>123</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.006776379477250726</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>29</v>
+      </c>
+      <c r="E15">
+        <v>0.28</v>
+      </c>
+      <c r="F15">
+        <v>0.72</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>3078</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <v>0.7641509433962265</v>
+      </c>
+      <c r="L15">
+        <v>81</v>
+      </c>
+      <c r="M15">
+        <v>81</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.00506033476060724</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>0.51</v>
+      </c>
+      <c r="F16">
+        <v>0.49</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>5112</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>0.7586206896551724</v>
+      </c>
+      <c r="L16">
+        <v>44</v>
+      </c>
+      <c r="M16">
+        <v>44</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.004430124848973017</v>
+      </c>
+      <c r="C17">
+        <v>22</v>
+      </c>
+      <c r="D17">
+        <v>52</v>
+      </c>
+      <c r="E17">
+        <v>0.58</v>
+      </c>
+      <c r="F17">
+        <v>0.42</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>4944</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="L17">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <v>25</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.7560975609756098</v>
+      </c>
+      <c r="L18">
+        <v>62</v>
+      </c>
+      <c r="M18">
+        <v>62</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.75</v>
+      </c>
+      <c r="L19">
+        <v>21</v>
+      </c>
+      <c r="M19">
+        <v>21</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L20">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="L21">
+        <v>44</v>
+      </c>
+      <c r="M21">
+        <v>44</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22">
+        <v>0.6875</v>
+      </c>
+      <c r="L22">
+        <v>33</v>
+      </c>
+      <c r="M22">
+        <v>33</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.66</v>
+      </c>
+      <c r="L23">
+        <v>33</v>
+      </c>
+      <c r="M23">
+        <v>33</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E12">
-        <v>0.44</v>
-      </c>
-      <c r="F12">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>5120</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="K24">
+        <v>0.6511627906976745</v>
+      </c>
+      <c r="L24">
         <v>28</v>
       </c>
-      <c r="K12">
-        <v>0.795774647887324</v>
-      </c>
-      <c r="L12">
-        <v>113</v>
-      </c>
-      <c r="M12">
-        <v>113</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="J13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13">
-        <v>0.7926829268292683</v>
-      </c>
-      <c r="L13">
-        <v>65</v>
-      </c>
-      <c r="M13">
-        <v>65</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="J14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14">
-        <v>0.7906976744186046</v>
-      </c>
-      <c r="L14">
+      <c r="M24">
+        <v>28</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>0.65</v>
+      </c>
+      <c r="L25">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="L26">
+        <v>220</v>
+      </c>
+      <c r="M26">
+        <v>220</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="L27">
+        <v>22</v>
+      </c>
+      <c r="M27">
+        <v>22</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28">
+        <v>0.5774058577405857</v>
+      </c>
+      <c r="L28">
+        <v>138</v>
+      </c>
+      <c r="M28">
+        <v>138</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>0.5531914893617021</v>
+      </c>
+      <c r="L29">
+        <v>52</v>
+      </c>
+      <c r="M29">
+        <v>52</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30">
+        <v>0.5230769230769231</v>
+      </c>
+      <c r="L30">
         <v>34</v>
       </c>
-      <c r="M14">
+      <c r="M30">
         <v>34</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L15">
-        <v>28</v>
-      </c>
-      <c r="M15">
-        <v>28</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16">
-        <v>0.7446808510638298</v>
-      </c>
-      <c r="L16">
-        <v>35</v>
-      </c>
-      <c r="M16">
-        <v>35</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17">
-        <v>0.7375</v>
-      </c>
-      <c r="L17">
-        <v>118</v>
-      </c>
-      <c r="M17">
-        <v>118</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="L18">
-        <v>19</v>
-      </c>
-      <c r="M18">
-        <v>19</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="L19">
-        <v>35</v>
-      </c>
-      <c r="M19">
-        <v>35</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L20">
-        <v>42</v>
-      </c>
-      <c r="M20">
-        <v>42</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K21">
-        <v>0.66</v>
-      </c>
-      <c r="L21">
-        <v>33</v>
-      </c>
-      <c r="M21">
-        <v>33</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22">
-        <v>0.6388888888888888</v>
-      </c>
-      <c r="L22">
-        <v>23</v>
-      </c>
-      <c r="M22">
-        <v>23</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K23">
-        <v>0.638235294117647</v>
-      </c>
-      <c r="L23">
-        <v>217</v>
-      </c>
-      <c r="M23">
-        <v>217</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="L24">
-        <v>20</v>
-      </c>
-      <c r="M24">
-        <v>20</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25">
-        <v>0.5851063829787234</v>
-      </c>
-      <c r="L25">
-        <v>55</v>
-      </c>
-      <c r="M25">
-        <v>55</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26">
-        <v>0.5815899581589958</v>
-      </c>
-      <c r="L26">
-        <v>139</v>
-      </c>
-      <c r="M26">
-        <v>139</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L27">
-        <v>20</v>
-      </c>
-      <c r="M27">
-        <v>20</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K28">
-        <v>0.5692307692307692</v>
-      </c>
-      <c r="L28">
-        <v>37</v>
-      </c>
-      <c r="M28">
-        <v>37</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K29">
-        <v>0.5612244897959183</v>
-      </c>
-      <c r="L29">
-        <v>165</v>
-      </c>
-      <c r="M29">
-        <v>166</v>
-      </c>
-      <c r="N29">
-        <v>0.99</v>
-      </c>
-      <c r="O29">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q29">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K30">
-        <v>0.5571428571428572</v>
-      </c>
-      <c r="L30">
-        <v>39</v>
-      </c>
-      <c r="M30">
-        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1565,18 +1712,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="10:17">
+    <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K31">
-        <v>0.475</v>
+        <v>0.5220338983050847</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1588,21 +1735,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K32">
-        <v>0.4719101123595505</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1614,21 +1761,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.273972602739726</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1640,137 +1787,267 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.01751459549624687</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>1178</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K35">
-        <v>0.00975609756097561</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N35">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>2639</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.00823293172690763</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L36">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="N36">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>4939</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K37">
-        <v>0.005564572223510317</v>
+        <v>0.02341137123745819</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M37">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="N37">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="O37">
-        <v>0.38</v>
+        <v>0.12</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>4289</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="K38">
-        <v>0.003891050583657588</v>
+        <v>0.01259445843828715</v>
       </c>
       <c r="L38">
         <v>20</v>
       </c>
       <c r="M38">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N38">
-        <v>0.44</v>
+        <v>0.77</v>
       </c>
       <c r="O38">
-        <v>0.5600000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>5120</v>
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K39">
+        <v>0.01045150501672241</v>
+      </c>
+      <c r="L39">
+        <v>25</v>
+      </c>
+      <c r="M39">
+        <v>27</v>
+      </c>
+      <c r="N39">
+        <v>0.93</v>
+      </c>
+      <c r="O39">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K40">
+        <v>0.008633633633633633</v>
+      </c>
+      <c r="L40">
+        <v>23</v>
+      </c>
+      <c r="M40">
+        <v>32</v>
+      </c>
+      <c r="N40">
+        <v>0.72</v>
+      </c>
+      <c r="O40">
+        <v>0.28</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K41">
+        <v>0.00741942963134709</v>
+      </c>
+      <c r="L41">
+        <v>32</v>
+      </c>
+      <c r="M41">
+        <v>47</v>
+      </c>
+      <c r="N41">
+        <v>0.68</v>
+      </c>
+      <c r="O41">
+        <v>0.32</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42">
+        <v>0.006031363088057901</v>
+      </c>
+      <c r="L42">
+        <v>30</v>
+      </c>
+      <c r="M42">
+        <v>52</v>
+      </c>
+      <c r="N42">
+        <v>0.58</v>
+      </c>
+      <c r="O42">
+        <v>0.42</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43">
+        <v>0.005253940455341506</v>
+      </c>
+      <c r="L43">
+        <v>27</v>
+      </c>
+      <c r="M43">
+        <v>53</v>
+      </c>
+      <c r="N43">
+        <v>0.51</v>
+      </c>
+      <c r="O43">
+        <v>0.49</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>5112</v>
       </c>
     </row>
   </sheetData>
